--- a/test_物件管理/test_鍵残り件数アラート_バッチ管理.xlsx
+++ b/test_物件管理/test_鍵残り件数アラート_バッチ管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="22" r:id="rId1"/>
@@ -13,8 +13,8 @@
     <sheet name="IN_FORM_002" sheetId="17" r:id="rId4"/>
     <sheet name="EXPECT_002" sheetId="18" r:id="rId5"/>
     <sheet name="IN_FORM_003" sheetId="9" r:id="rId6"/>
-    <sheet name="IN_FORM_004" sheetId="11" r:id="rId7"/>
-    <sheet name="EXPECT_004" sheetId="20" r:id="rId8"/>
+    <sheet name="EXPECT_003" sheetId="20" r:id="rId7"/>
+    <sheet name="IN_FORM_004" sheetId="11" r:id="rId8"/>
     <sheet name="IN_FORM_005" sheetId="12" r:id="rId9"/>
     <sheet name="EXPECT_005" sheetId="21" r:id="rId10"/>
     <sheet name="テストケース" sheetId="3" r:id="rId11"/>
@@ -24,18 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="116">
   <si>
     <t>URL:</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>入力値</t>
-  </si>
-  <si>
-    <t>項目名称</t>
   </si>
   <si>
     <t>FIELD</t>
@@ -100,12 +91,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>ＳＴ西葛西ビル</t>
-  </si>
-  <si>
-    <t>江戸川区</t>
-  </si>
-  <si>
     <t>9999-12-31 23:59:59</t>
   </si>
   <si>
@@ -154,68 +139,10 @@
     <t>4</t>
   </si>
   <si>
-    <t>searchbar</t>
-  </si>
-  <si>
-    <t>//*[@id="changelist-search-button"]</t>
-  </si>
-  <si>
     <t>サブ機能</t>
   </si>
   <si>
-    <t>/whiteboard/inquiry/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/main/div/div/div/form/div[2]/div/button</t>
-  </si>
-  <si>
-    <t>車種1</t>
-  </si>
-  <si>
     <t>SET FOREIGN_KEY_CHECKS=1;</t>
-  </si>
-  <si>
-    <t>刘テスト5</t>
-  </si>
-  <si>
-    <t>检索</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>検索 問い合わせ</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/body/main/div/div[1]/div/div[2]/div/a[1]</t>
-  </si>
-  <si>
-    <t>問い合わせ消除后</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>問い合わせ検索駐車場</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>問い合わせ検索エリア</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>問い合わせ検索名前</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>問い合わせ検索電話番号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>問い合わせ検索車種</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>/whiteboard/inquiry/1/detail/</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
@@ -649,6 +576,101 @@
       <t>明3</t>
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_FORM_002</t>
+  </si>
+  <si>
+    <t>EXPECT_002</t>
+  </si>
+  <si>
+    <t>RESULT_002</t>
+  </si>
+  <si>
+    <t>/html/body/main/form[1]/div[1]/div/div/div[1]/div/table/tbody/tr[5]/th/a</t>
+  </si>
+  <si>
+    <t>/html/body/main/form[1]/div[1]/div/div/div[1]/div/table/tbody/tr[1]/td[1]/label</t>
+  </si>
+  <si>
+    <t>/html/body/main/form[1]/div[1]/div/div/div[1]/div/table/tbody/tr[5]/td[1]/label</t>
+  </si>
+  <si>
+    <t>id_action</t>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/main/form[1]/div[2]/div/div[2]/div/button</t>
+  </si>
+  <si>
+    <t>/html/body/main/div/div/div/div[2]/div/form/div/button</t>
+  </si>
+  <si>
+    <t>選択された バッチ管理 の削除</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>バッチ管理 の削除后</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/html/body/main/form[1]/div[1]/div/div/div[1]/div/table/tbody/tr[1]/td[5]/input</t>
+  </si>
+  <si>
+    <t>バッチ管理 の实行后</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/main/form[1]/div[1]/div/div/div[1]/div/table/tbody/tr[1]/td[6]/a</t>
+  </si>
+  <si>
+    <t>SHOT</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANDLE</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>ログ参照</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN_FORM_003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_FORM_004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN_FORM_005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>实行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPECT_003</t>
+  </si>
+  <si>
+    <t>RESULT_003</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1034,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1057,7 +1079,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1105,7 +1126,6 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,6 +1180,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1493,258 +1546,258 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:22" ht="14.25">
-      <c r="A1" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>90</v>
+      <c r="A1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.25">
-      <c r="A2" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="54" t="s">
-        <v>91</v>
+      <c r="A2" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25">
-      <c r="A3" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="54" customFormat="1" ht="14.25">
-      <c r="A5" s="68" t="s">
+      <c r="A3" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="52" customFormat="1" ht="14.25">
+      <c r="A5" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="52" customFormat="1" ht="12">
+      <c r="B6" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="51" customFormat="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="57" t="s">
+    </row>
+    <row r="8" spans="1:22" s="51" customFormat="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="64" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" s="54" customFormat="1" ht="12">
-      <c r="B6" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="70" t="s">
+      <c r="H8" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+    </row>
+    <row r="9" spans="1:22" s="51" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D9" s="64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" s="53" customFormat="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="64" t="s">
+      <c r="E9" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="53" customFormat="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="66" t="s">
+      <c r="F9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+    </row>
+    <row r="10" spans="1:22" s="51" customFormat="1">
+      <c r="A10" s="55"/>
+      <c r="B10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-    </row>
-    <row r="9" spans="1:22" s="53" customFormat="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-    </row>
-    <row r="10" spans="1:22" s="53" customFormat="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-    </row>
-    <row r="11" spans="1:22" s="53" customFormat="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-    </row>
-    <row r="12" spans="1:22" s="53" customFormat="1"/>
+      <c r="C10" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+    </row>
+    <row r="11" spans="1:22" s="51" customFormat="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+    </row>
+    <row r="12" spans="1:22" s="51" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1756,7 +1809,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD19"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1771,7 +1824,7 @@
   <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F10"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1789,140 +1842,164 @@
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I4" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="2:13" s="9" customFormat="1">
+      <c r="B7" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="I8" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="I6" s="20"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-    </row>
-    <row r="7" spans="2:13" s="9" customFormat="1">
-      <c r="B7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="16"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="I8" s="20"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="38" t="s">
-        <v>59</v>
-      </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="I9" s="20"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
+      <c r="D9" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="I9" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="9"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1936,7 +2013,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD24"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1950,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="50" t="s">
-        <v>63</v>
+      <c r="D3" s="48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
@@ -1975,97 +2052,97 @@
     </row>
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="42" t="b">
+        <v>44</v>
+      </c>
+      <c r="C7" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>66</v>
+      <c r="D7" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>46</v>
       </c>
       <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="14.25">
-      <c r="A10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
+      <c r="A10" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="11"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="11"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
     </row>
     <row r="35" spans="1:7">
       <c r="C35" s="14"/>
@@ -2141,7 +2218,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2159,278 +2236,276 @@
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="28" customFormat="1"/>
-    <row r="2" spans="1:22" s="28" customFormat="1" ht="14.25">
-      <c r="A2" s="33" t="s">
+    <row r="1" spans="1:22" s="27" customFormat="1"/>
+    <row r="2" spans="1:22" s="27" customFormat="1" ht="14.25">
+      <c r="A2" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="27" customFormat="1">
+      <c r="B3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="23" customFormat="1" ht="13.5">
+      <c r="A4" s="26"/>
+      <c r="B4" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57" t="s">
+    </row>
+    <row r="5" spans="1:22" s="48" customFormat="1" ht="13.5">
+      <c r="A5" s="49"/>
+      <c r="B5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="28" customFormat="1">
-      <c r="B3" s="39" t="s">
+      <c r="H5" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="K5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+    </row>
+    <row r="6" spans="1:22" s="23" customFormat="1" ht="13.5">
+      <c r="A6" s="34"/>
+      <c r="B6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D6" s="33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="23" customFormat="1" ht="13.5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="E6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="50" customFormat="1" ht="13.5">
-      <c r="A5" s="51"/>
-      <c r="B5" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="F6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row r="7" spans="1:22" s="23" customFormat="1" ht="13.5">
+      <c r="A7" s="34"/>
+      <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="K5" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-    </row>
-    <row r="6" spans="1:22" s="23" customFormat="1" ht="13.5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-    </row>
-    <row r="7" spans="1:22" s="23" customFormat="1" ht="13.5">
-      <c r="A7" s="35"/>
-      <c r="B7" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="45" t="s">
+      <c r="C7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="1:22" s="23" customFormat="1" ht="13.5">
+      <c r="A8" s="34"/>
+      <c r="B8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="1:22" s="51" customFormat="1" ht="13.5">
+      <c r="A9" s="55"/>
+      <c r="B9" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="45" t="s">
+      <c r="C9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="81"/>
+      <c r="H9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-    </row>
-    <row r="8" spans="1:22" s="23" customFormat="1" ht="13.5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="45" t="s">
+      <c r="I9" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="J9" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-    </row>
-    <row r="9" spans="1:22" s="53" customFormat="1" ht="13.5">
-      <c r="A9" s="57"/>
-      <c r="B9" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -2443,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2453,127 +2528,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="53"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:5" ht="14.25">
-      <c r="A5" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="53"/>
+      <c r="A5" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="53"/>
+      <c r="A6" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="59" t="b">
+      <c r="A7" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="53"/>
+      <c r="B7" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="53"/>
+      <c r="A8" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="53"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -2587,288 +2666,288 @@
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:22" s="54" customFormat="1" ht="12"/>
-    <row r="2" spans="1:22" s="54" customFormat="1" ht="14.25">
-      <c r="A2" s="68" t="s">
+    <row r="1" spans="1:22" s="52" customFormat="1" ht="12"/>
+    <row r="2" spans="1:22" s="52" customFormat="1" ht="14.25">
+      <c r="A2" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="52" customFormat="1" ht="12">
+      <c r="B3" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="51" customFormat="1">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57" t="s">
+    </row>
+    <row r="5" spans="1:22" s="51" customFormat="1">
+      <c r="A5" s="55"/>
+      <c r="B5" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="54" customFormat="1" ht="12">
-      <c r="B3" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="70" t="s">
+      <c r="H5" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+    </row>
+    <row r="6" spans="1:22" s="51" customFormat="1">
+      <c r="A6" s="55"/>
+      <c r="B6" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D6" s="64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="53" customFormat="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="64" t="s">
+      <c r="E6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="53" customFormat="1">
-      <c r="A5" s="57"/>
-      <c r="B5" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="F6" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+    </row>
+    <row r="7" spans="1:22" s="51" customFormat="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="I5" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-    </row>
-    <row r="6" spans="1:22" s="53" customFormat="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-    </row>
-    <row r="7" spans="1:22" s="53" customFormat="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="66" t="s">
+      <c r="C7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+    </row>
+    <row r="8" spans="1:22" s="51" customFormat="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+    </row>
+    <row r="9" spans="1:22" s="51" customFormat="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="C9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-    </row>
-    <row r="8" spans="1:22" s="53" customFormat="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="66" t="s">
+      <c r="I9" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="J9" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-    </row>
-    <row r="9" spans="1:22" s="53" customFormat="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-    </row>
-    <row r="10" spans="1:22" s="54" customFormat="1" ht="12"/>
-    <row r="11" spans="1:22" s="54" customFormat="1" ht="12"/>
-    <row r="12" spans="1:22" s="54" customFormat="1" ht="12"/>
-    <row r="13" spans="1:22" s="54" customFormat="1" ht="12"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+    </row>
+    <row r="10" spans="1:22" s="52" customFormat="1" ht="12"/>
+    <row r="11" spans="1:22" s="52" customFormat="1" ht="12"/>
+    <row r="12" spans="1:22" s="52" customFormat="1" ht="12"/>
+    <row r="13" spans="1:22" s="52" customFormat="1" ht="12"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2877,10 +2956,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2889,204 +2968,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>39</v>
+      <c r="B1" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="36" customFormat="1" ht="14.25">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="B7" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="36" customFormat="1" ht="14.25">
+      <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25">
-      <c r="A4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25">
-      <c r="A5" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25">
-      <c r="A6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A8" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="36" customFormat="1" ht="14.25">
+      <c r="A9" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A9" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A10" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A12" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A13" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A14" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A16" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="42">
-        <v>13900000000</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A17" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A20" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A21" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="37" customFormat="1" ht="14.25">
-      <c r="A22" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="36"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="36"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="36"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="36"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="36"/>
+      <c r="B10" s="70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="35"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
@@ -3097,44 +3051,243 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:22" s="72" customFormat="1" ht="12"/>
+    <row r="2" spans="1:22" s="72" customFormat="1" ht="14.25">
+      <c r="A2" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="72" customFormat="1" ht="12">
+      <c r="B3" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="70" customFormat="1">
+      <c r="A4" s="77"/>
+      <c r="B4" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="70" customFormat="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+    </row>
+    <row r="6" spans="1:22" s="70" customFormat="1">
+      <c r="A6" s="74"/>
+      <c r="B6" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+    </row>
+    <row r="7" spans="1:22" s="70" customFormat="1">
+      <c r="A7" s="74"/>
+      <c r="B7" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+    </row>
+    <row r="8" spans="1:22" s="72" customFormat="1" ht="12"/>
+    <row r="9" spans="1:22" s="72" customFormat="1" ht="12"/>
+    <row r="10" spans="1:22" s="72" customFormat="1" ht="12"/>
+  </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>53</v>
+      <c r="B1" s="75" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25">
-      <c r="A3" s="40" t="s">
-        <v>6</v>
+      <c r="A3" s="39" t="s">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25">
-      <c r="A4" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A4" s="39"/>
     </row>
     <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>47</v>
+      <c r="A5" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3144,34 +3297,60 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
+      <c r="A4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
+      <c r="A5" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
+      <c r="A7" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
